--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Eng.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H2">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I2">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J2">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N2">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O2">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P2">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q2">
-        <v>102.60353585768</v>
+        <v>35.44625792055666</v>
       </c>
       <c r="R2">
-        <v>923.4318227191199</v>
+        <v>319.01632128501</v>
       </c>
       <c r="S2">
-        <v>0.2113116006385991</v>
+        <v>0.07366088891240828</v>
       </c>
       <c r="T2">
-        <v>0.2113116006385991</v>
+        <v>0.0736608889124083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H3">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I3">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J3">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
         <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P3">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q3">
-        <v>26.46262900077333</v>
+        <v>7.962268068343332</v>
       </c>
       <c r="R3">
-        <v>238.16366100696</v>
+        <v>71.66041261509</v>
       </c>
       <c r="S3">
-        <v>0.0544996860441069</v>
+        <v>0.01654639383902116</v>
       </c>
       <c r="T3">
-        <v>0.05449968604410693</v>
+        <v>0.01654639383902116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H4">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I4">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J4">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N4">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O4">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P4">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q4">
-        <v>4.861836613546667</v>
+        <v>0.8728668163766665</v>
       </c>
       <c r="R4">
-        <v>43.75652952192</v>
+        <v>7.855801347389999</v>
       </c>
       <c r="S4">
-        <v>0.0100129344302221</v>
+        <v>0.001813905031683507</v>
       </c>
       <c r="T4">
-        <v>0.01001293443022211</v>
+        <v>0.001813905031683508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H5">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I5">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J5">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N5">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O5">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P5">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q5">
-        <v>5.091375623333333</v>
+        <v>1.242480949788333</v>
       </c>
       <c r="R5">
-        <v>45.82238061</v>
+        <v>11.182328548095</v>
       </c>
       <c r="S5">
-        <v>0.01048566916749567</v>
+        <v>0.002582000374292391</v>
       </c>
       <c r="T5">
-        <v>0.01048566916749567</v>
+        <v>0.002582000374292392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H6">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I6">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J6">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N6">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O6">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P6">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q6">
-        <v>1.42489400308</v>
+        <v>0.4623790731733333</v>
       </c>
       <c r="R6">
-        <v>12.82404602772</v>
+        <v>4.16141165856</v>
       </c>
       <c r="S6">
-        <v>0.00293456390186029</v>
+        <v>0.0009608702171263872</v>
       </c>
       <c r="T6">
-        <v>0.002934563901860292</v>
+        <v>0.0009608702171263875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H7">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I7">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J7">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N7">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O7">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P7">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q7">
-        <v>4.546527601906666</v>
+        <v>1.677133224715</v>
       </c>
       <c r="R7">
-        <v>40.91874841716</v>
+        <v>15.094199022435</v>
       </c>
       <c r="S7">
-        <v>0.009363556693008028</v>
+        <v>0.003485251516081632</v>
       </c>
       <c r="T7">
-        <v>0.009363556693008035</v>
+        <v>0.003485251516081633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H8">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N8">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O8">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P8">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q8">
-        <v>142.32535223049</v>
+        <v>287.6912292570344</v>
       </c>
       <c r="R8">
-        <v>1280.92817007441</v>
+        <v>2589.22106331331</v>
       </c>
       <c r="S8">
-        <v>0.2931185337802966</v>
+        <v>0.5978513085040429</v>
       </c>
       <c r="T8">
-        <v>0.2931185337802966</v>
+        <v>0.597851308504043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H9">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
         <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P9">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q9">
-        <v>36.70734114567</v>
+        <v>64.62387915219887</v>
       </c>
       <c r="R9">
-        <v>330.36607031103</v>
+        <v>581.61491236979</v>
       </c>
       <c r="S9">
-        <v>0.07559863261864418</v>
+        <v>0.1342949203266493</v>
       </c>
       <c r="T9">
-        <v>0.0755986326186442</v>
+        <v>0.1342949203266493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H10">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N10">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O10">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P10">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q10">
-        <v>6.74404251984</v>
+        <v>7.084418556787776</v>
       </c>
       <c r="R10">
-        <v>60.69638267855999</v>
+        <v>63.75976701109</v>
       </c>
       <c r="S10">
-        <v>0.01388933049655219</v>
+        <v>0.01472213426562893</v>
       </c>
       <c r="T10">
-        <v>0.0138893304965522</v>
+        <v>0.01472213426562894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H11">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N11">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O11">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P11">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q11">
-        <v>7.062445001249999</v>
+        <v>10.08430488132722</v>
       </c>
       <c r="R11">
-        <v>63.56200501124999</v>
+        <v>90.75874393194501</v>
       </c>
       <c r="S11">
-        <v>0.01454507922325665</v>
+        <v>0.02095619975702743</v>
       </c>
       <c r="T11">
-        <v>0.01454507922325666</v>
+        <v>0.02095619975702743</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H12">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N12">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O12">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P12">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q12">
-        <v>1.976525849565</v>
+        <v>3.752791175928889</v>
       </c>
       <c r="R12">
-        <v>17.78873264608499</v>
+        <v>33.77512058336</v>
       </c>
       <c r="S12">
-        <v>0.004070647638834606</v>
+        <v>0.007798677494846336</v>
       </c>
       <c r="T12">
-        <v>0.004070647638834608</v>
+        <v>0.007798677494846336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H13">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N13">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O13">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P13">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q13">
-        <v>6.306665135444999</v>
+        <v>13.61205800983166</v>
       </c>
       <c r="R13">
-        <v>56.75998621900499</v>
+        <v>122.508522088485</v>
       </c>
       <c r="S13">
-        <v>0.01298855339947603</v>
+        <v>0.02828722555646633</v>
       </c>
       <c r="T13">
-        <v>0.01298855339947603</v>
+        <v>0.02828722555646634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H14">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N14">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O14">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P14">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q14">
-        <v>98.67721798019798</v>
+        <v>34.72727694547333</v>
       </c>
       <c r="R14">
-        <v>888.0949618217818</v>
+        <v>312.54549250926</v>
       </c>
       <c r="S14">
-        <v>0.2032253635672226</v>
+        <v>0.07216677413576682</v>
       </c>
       <c r="T14">
-        <v>0.2032253635672227</v>
+        <v>0.07216677413576683</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H15">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
         <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P15">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q15">
-        <v>25.44998657610067</v>
+        <v>7.800763875926665</v>
       </c>
       <c r="R15">
-        <v>229.049879184906</v>
+        <v>70.20687488333999</v>
       </c>
       <c r="S15">
-        <v>0.05241415273530411</v>
+        <v>0.01621077188414076</v>
       </c>
       <c r="T15">
-        <v>0.05241415273530412</v>
+        <v>0.01621077188414076</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H16">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N16">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O16">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P16">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q16">
-        <v>4.675789262901334</v>
+        <v>0.8551618547933332</v>
       </c>
       <c r="R16">
-        <v>42.08210336611199</v>
+        <v>7.69645669314</v>
       </c>
       <c r="S16">
-        <v>0.009629770603256451</v>
+        <v>0.001777112340863752</v>
       </c>
       <c r="T16">
-        <v>0.009629770603256453</v>
+        <v>0.001777112340863752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H17">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N17">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O17">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P17">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q17">
-        <v>4.896544529416667</v>
+        <v>1.217278848996667</v>
       </c>
       <c r="R17">
-        <v>44.06890076474999</v>
+        <v>10.95550964097</v>
       </c>
       <c r="S17">
-        <v>0.01008441525391898</v>
+        <v>0.002529627874184343</v>
       </c>
       <c r="T17">
-        <v>0.01008441525391899</v>
+        <v>0.002529627874184343</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H18">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N18">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O18">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P18">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q18">
-        <v>1.370367745763</v>
+        <v>0.4530003185066667</v>
       </c>
       <c r="R18">
-        <v>12.333309711867</v>
+        <v>4.07700286656</v>
       </c>
       <c r="S18">
-        <v>0.00282226727763411</v>
+        <v>0.0009413802216750646</v>
       </c>
       <c r="T18">
-        <v>0.00282226727763411</v>
+        <v>0.0009413802216750646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H19">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N19">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O19">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P19">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q19">
-        <v>4.372546145472333</v>
+        <v>1.64311477109</v>
       </c>
       <c r="R19">
-        <v>39.35291530925099</v>
+        <v>14.78803293981</v>
       </c>
       <c r="S19">
-        <v>0.009005242530311248</v>
+        <v>0.003414557748094637</v>
       </c>
       <c r="T19">
-        <v>0.009005242530311252</v>
+        <v>0.003414557748094637</v>
       </c>
     </row>
   </sheetData>
